--- a/citations - atlasti/codebook-citations.xlsx
+++ b/citations - atlasti/codebook-citations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Scientific Software\ATLASti.9\ExcelReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Repositories\reactiveusability24\citations - atlasti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66CE630-DECA-49C0-BC1E-C8A70617FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6D8C7-7A66-4353-8BB5-B0D161EF168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,17 +265,6 @@
     <t>2:18</t>
   </si>
   <si>
-    <t>Entrevistador: Uma coisa que eu gostei bastante é que de uma forma específica me lembrou um pouco uma forma meio que funcional de escrever, mas ainda assim tinha mais subchaining, etc. Mas acho que me lembrou um pouco a forma funcional de escrever, que eu gosto muito de fazer no JavaScript. Eu gosto muito de uma biblioteca chamada Ramda, que é meio que tornar o JavaScript funcional. E aí eu senti que depois que comecei a fazer alguns paralelos desse biblioteca com o RxJS, eu comecei a entender um pouco melhor o que é o RxJS também, e também a forma como um método acaba influenciando no resultado do outro também, meio que de uma forma de um compose dos métodos, então eu meio que fiquei associando pipe com compose, map com tal, eu fiquei meio que fazendo essas associações e acho que isso também foi uma das coisas que me fez pensar de forma mais fluida depois, então eu gostei muito dessa proximidade da sintaxe. - -Entrevistador: Certo. Então, uma das principais facilidades no caso da API, talvez essa tua proximidade com a programação funcional, tu achou que facilitou bastante? - -Entrevistado: Sim, com certeza. - -Entrevistador: Até porque acho que tem alguns métodos, algumas funções que são bem próximas do que às vezes é trazido nessas bibliotecas, né? - -Entrevistado: É bem parecido.</t>
-  </si>
-  <si>
     <t>2:20</t>
   </si>
   <si>
@@ -942,6 +931,13 @@
   </si>
   <si>
     <t>Codes</t>
+  </si>
+  <si>
+    <t>Entrevistado: Uma coisa que eu gostei bastante é que de uma forma específica me lembrou um pouco uma forma meio que funcional de escrever, mas ainda assim tinha mais subchaining, etc. Mas acho que me lembrou um pouco a forma funcional de escrever, que eu gosto muito de fazer no JavaScript. Eu gosto muito de uma biblioteca chamada Ramda, que é meio que tornar o JavaScript funcional. E aí eu senti que depois que comecei a fazer alguns paralelos desse biblioteca com o RxJS, eu comecei a entender um pouco melhor o que é o RxJS também, e também a forma como um método acaba influenciando no resultado do outro também, meio que de uma forma de um compose dos métodos, então eu meio que fiquei associando pipe com compose, map com tal, eu fiquei meio que fazendo essas associações e acho que isso também foi uma das coisas que me fez pensar de forma mais fluida depois, então eu gostei muito dessa proximidade da sintaxe.
+Entrevistador: Certo. Então, uma das principais facilidades no caso da API, talvez essa tua proximidade com a programação funcional, tu achou que facilitou bastante?
+Entrevistado: Sim, com certeza.
+Entrevistador: Até porque acho que tem alguns métodos, algumas funções que são bem próximas do que às vezes é trazido nessas bibliotecas, né?
+Entrevistado: É bem parecido.</t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1320,8 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1342,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -1419,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
@@ -1830,7 +1826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="386.4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
@@ -1841,7 +1837,7 @@
         <v>48</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
@@ -1849,7 +1845,7 @@
     </row>
     <row r="31" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>47</v>
@@ -1858,7 +1854,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>11</v>
@@ -1866,7 +1862,7 @@
     </row>
     <row r="32" spans="1:5" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>47</v>
@@ -1875,7 +1871,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -1883,169 +1879,169 @@
     </row>
     <row r="33" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="E38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>26</v>
@@ -2053,16 +2049,16 @@
     </row>
     <row r="43" spans="1:5" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>26</v>
@@ -2070,16 +2066,16 @@
     </row>
     <row r="44" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>26</v>
@@ -2087,16 +2083,16 @@
     </row>
     <row r="45" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>54</v>
@@ -2104,118 +2100,118 @@
     </row>
     <row r="46" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E49" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>26</v>
@@ -2223,33 +2219,33 @@
     </row>
     <row r="53" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>37</v>
@@ -2257,16 +2253,16 @@
     </row>
     <row r="55" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>19</v>
@@ -2274,16 +2270,16 @@
     </row>
     <row r="56" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>8</v>
@@ -2291,50 +2287,50 @@
     </row>
     <row r="57" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="138" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>60</v>
@@ -2342,33 +2338,33 @@
     </row>
     <row r="60" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>19</v>
@@ -2376,16 +2372,16 @@
     </row>
     <row r="62" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>60</v>
@@ -2393,16 +2389,16 @@
     </row>
     <row r="63" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>8</v>
@@ -2410,16 +2406,16 @@
     </row>
     <row r="64" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>5</v>
@@ -2427,16 +2423,16 @@
     </row>
     <row r="65" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>5</v>
@@ -2444,16 +2440,16 @@
     </row>
     <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>60</v>
@@ -2461,16 +2457,16 @@
     </row>
     <row r="67" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>19</v>
@@ -2478,16 +2474,16 @@
     </row>
     <row r="68" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>19</v>
@@ -2495,16 +2491,16 @@
     </row>
     <row r="69" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>60</v>
@@ -2512,16 +2508,16 @@
     </row>
     <row r="70" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>5</v>
@@ -2529,16 +2525,16 @@
     </row>
     <row r="71" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>8</v>
@@ -2546,16 +2542,16 @@
     </row>
     <row r="72" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>54</v>
@@ -2563,16 +2559,16 @@
     </row>
     <row r="73" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>8</v>
@@ -2580,16 +2576,16 @@
     </row>
     <row r="74" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>60</v>
@@ -2597,16 +2593,16 @@
     </row>
     <row r="75" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>5</v>
@@ -2614,16 +2610,16 @@
     </row>
     <row r="76" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>60</v>
@@ -2631,16 +2627,16 @@
     </row>
     <row r="77" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>5</v>
@@ -2648,16 +2644,16 @@
     </row>
     <row r="78" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>5</v>
@@ -2665,16 +2661,16 @@
     </row>
     <row r="79" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>60</v>
@@ -2682,16 +2678,16 @@
     </row>
     <row r="80" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>5</v>
@@ -2699,16 +2695,16 @@
     </row>
     <row r="81" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
@@ -2716,16 +2712,16 @@
     </row>
     <row r="82" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>19</v>
@@ -2733,33 +2729,33 @@
     </row>
     <row r="83" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E83" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>19</v>
@@ -2767,16 +2763,16 @@
     </row>
     <row r="85" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>19</v>
@@ -2784,16 +2780,16 @@
     </row>
     <row r="86" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -2801,16 +2797,16 @@
     </row>
     <row r="87" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
@@ -2818,16 +2814,16 @@
     </row>
     <row r="88" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
@@ -2835,33 +2831,33 @@
     </row>
     <row r="89" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="E89" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="276" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>16</v>
@@ -2869,16 +2865,16 @@
     </row>
     <row r="91" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>26</v>
@@ -2886,50 +2882,50 @@
     </row>
     <row r="92" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E92" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>5</v>
@@ -2937,16 +2933,16 @@
     </row>
     <row r="95" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>8</v>
@@ -2954,16 +2950,16 @@
     </row>
     <row r="96" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>16</v>
@@ -2971,16 +2967,16 @@
     </row>
     <row r="97" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>37</v>
@@ -2988,33 +2984,33 @@
     </row>
     <row r="98" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="E98" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>16</v>
@@ -3022,50 +3018,50 @@
     </row>
     <row r="100" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E100" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="E101" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>60</v>
@@ -3073,16 +3069,16 @@
     </row>
     <row r="103" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>16</v>
@@ -3090,33 +3086,33 @@
     </row>
     <row r="104" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="E104" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>11</v>
@@ -3124,16 +3120,16 @@
     </row>
     <row r="106" spans="1:5" ht="138" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>11</v>
@@ -3141,33 +3137,33 @@
     </row>
     <row r="107" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E107" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="138" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>26</v>
@@ -3175,16 +3171,16 @@
     </row>
     <row r="109" spans="1:5" ht="138" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>26</v>
@@ -3192,16 +3188,16 @@
     </row>
     <row r="110" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>26</v>
@@ -3209,33 +3205,33 @@
     </row>
     <row r="111" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="E111" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>26</v>
@@ -3243,16 +3239,16 @@
     </row>
     <row r="113" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>26</v>
@@ -3280,18 +3276,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
